--- a/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020205981151010741515201515875301415555155550</v>
+        <v>020205981151010741515201515875301415555155555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>732_樱花_sakura_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +836,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020205981151010741515201515875301415555155555</v>
+        <v>02020598115101074151520151587530141555515555569815103010580</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +775,72 @@
       <c r="A41" t="str">
         <v>2</v>
       </c>
+      <c r="C41" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>503_丁香花 粉_lilac pink_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>757_芍药老忠诚_Old Faith_undefined_10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -836,7 +898,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020598115101074151520151587530141555515555569815103010580</v>
+        <v>02020598115101074151520151587530141555515555569815103010581551010441320</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-27.xlsx
@@ -900,6 +900,9 @@
       <c r="G2" t="str">
         <v>02020598115101074151520151587530141555515555569815103010581551010441320</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
